--- a/utils/cleaners/Marco_consolidacion/Dimensión 3.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 3.xlsx
@@ -40,6 +40,12 @@
     <t>Nivel err_conceptual_g</t>
   </si>
   <si>
+    <t>Nivel Revision Plan</t>
+  </si>
+  <si>
+    <t>Nivel lider</t>
+  </si>
+  <si>
     <t>Nivel conocimiento_area</t>
   </si>
   <si>
@@ -62,12 +68,6 @@
   </si>
   <si>
     <t>Nivel_cant_practicas_ev_area</t>
-  </si>
-  <si>
-    <t>Nivel Revision Plan</t>
-  </si>
-  <si>
-    <t>Nivel lider</t>
   </si>
   <si>
     <t>Dimensión 3</t>
@@ -543,22 +543,22 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
         <v>19</v>
@@ -567,13 +567,13 @@
         <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -602,22 +602,22 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -626,10 +626,10 @@
         <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
         <v>25</v>
@@ -661,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -670,13 +670,13 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>19</v>
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
         <v>19</v>
@@ -726,28 +726,28 @@
         <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -788,13 +788,13 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
@@ -803,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
         <v>19</v>
@@ -838,31 +838,31 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
         <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
         <v>19</v>
@@ -897,25 +897,25 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
         <v>19</v>
@@ -959,7 +959,7 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
@@ -968,13 +968,13 @@
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
         <v>19</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
         <v>19</v>
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s">
         <v>21</v>
@@ -1018,13 +1018,13 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
@@ -1074,7 +1074,7 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
@@ -1083,25 +1083,25 @@
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
         <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s">
         <v>21</v>
@@ -1133,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -1142,22 +1142,22 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
         <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R12" t="s">
         <v>19</v>
@@ -1201,22 +1201,22 @@
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P13" t="s">
         <v>19</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
         <v>19</v>
@@ -1254,19 +1254,19 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
         <v>19</v>
@@ -1310,7 +1310,7 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
         <v>25</v>
@@ -1319,25 +1319,25 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s">
         <v>21</v>
@@ -1378,13 +1378,13 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
         <v>19</v>
@@ -1431,22 +1431,22 @@
         <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
         <v>19</v>
@@ -1493,16 +1493,16 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O18" t="s">
         <v>19</v>
@@ -1546,16 +1546,16 @@
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
         <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
@@ -1570,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R19" t="s">
         <v>19</v>
@@ -1605,10 +1605,10 @@
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
         <v>19</v>
@@ -1629,10 +1629,10 @@
         <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s">
         <v>21</v>
@@ -1664,34 +1664,34 @@
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P21" t="s">
         <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
@@ -1726,19 +1726,19 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
       </c>
       <c r="N22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O22" t="s">
         <v>19</v>
@@ -1782,34 +1782,34 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P23" t="s">
         <v>19</v>
       </c>
       <c r="Q23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s">
         <v>21</v>
@@ -1844,19 +1844,19 @@
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
@@ -1865,10 +1865,10 @@
         <v>19</v>
       </c>
       <c r="Q24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s">
         <v>21</v>
@@ -1900,7 +1900,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
         <v>25</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
         <v>19</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s">
         <v>21</v>
@@ -1968,13 +1968,13 @@
         <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s">
         <v>19</v>
@@ -2018,34 +2018,34 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
         <v>19</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N27" t="s">
         <v>19</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
         <v>19</v>
       </c>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s">
         <v>21</v>
@@ -2077,34 +2077,34 @@
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
         <v>19</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s">
         <v>21</v>
@@ -2139,19 +2139,19 @@
         <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s">
         <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O29" t="s">
         <v>19</v>
@@ -2163,7 +2163,7 @@
         <v>19</v>
       </c>
       <c r="R29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s">
         <v>21</v>
@@ -2198,19 +2198,19 @@
         <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
         <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
       </c>
       <c r="N30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O30" t="s">
         <v>19</v>
@@ -2254,7 +2254,7 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
         <v>25</v>
@@ -2263,13 +2263,13 @@
         <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O31" t="s">
         <v>19</v>
@@ -2278,10 +2278,10 @@
         <v>19</v>
       </c>
       <c r="Q31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s">
         <v>21</v>
@@ -2313,34 +2313,34 @@
         <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
         <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N32" t="s">
         <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P32" t="s">
         <v>19</v>
       </c>
       <c r="Q32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S32" t="s">
         <v>21</v>
@@ -2372,16 +2372,16 @@
         <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
         <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
@@ -2396,10 +2396,10 @@
         <v>19</v>
       </c>
       <c r="Q33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S33" t="s">
         <v>21</v>
@@ -2431,7 +2431,7 @@
         <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -2440,13 +2440,13 @@
         <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M34" t="s">
         <v>19</v>
       </c>
       <c r="N34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O34" t="s">
         <v>19</v>
@@ -2455,7 +2455,7 @@
         <v>19</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R34" t="s">
         <v>19</v>
@@ -2490,34 +2490,34 @@
         <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P35" t="s">
         <v>19</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S35" t="s">
         <v>25</v>
@@ -2549,22 +2549,22 @@
         <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O36" t="s">
         <v>24</v>
@@ -2573,10 +2573,10 @@
         <v>19</v>
       </c>
       <c r="Q36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S36" t="s">
         <v>21</v>
@@ -2608,22 +2608,22 @@
         <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
         <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O37" t="s">
         <v>24</v>
@@ -2632,10 +2632,10 @@
         <v>19</v>
       </c>
       <c r="Q37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R37" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S37" t="s">
         <v>21</v>
@@ -2667,22 +2667,22 @@
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38" t="s">
         <v>19</v>
       </c>
       <c r="N38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O38" t="s">
         <v>19</v>
@@ -2726,22 +2726,22 @@
         <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
         <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
       </c>
       <c r="N39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O39" t="s">
         <v>19</v>
@@ -2750,10 +2750,10 @@
         <v>19</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S39" t="s">
         <v>21</v>
@@ -2785,25 +2785,25 @@
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P40" t="s">
         <v>19</v>
@@ -2844,22 +2844,22 @@
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
         <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
         <v>19</v>
       </c>
       <c r="N41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O41" t="s">
         <v>19</v>
@@ -2868,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="Q41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R41" t="s">
         <v>19</v>
@@ -2903,22 +2903,22 @@
         <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O42" t="s">
         <v>24</v>
@@ -2927,7 +2927,7 @@
         <v>19</v>
       </c>
       <c r="Q42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R42" t="s">
         <v>19</v>
@@ -2962,7 +2962,7 @@
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -2986,7 +2986,7 @@
         <v>19</v>
       </c>
       <c r="Q43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R43" t="s">
         <v>19</v>
@@ -3021,31 +3021,31 @@
         <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
         <v>19</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P44" t="s">
         <v>19</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R44" t="s">
         <v>19</v>
@@ -3083,22 +3083,22 @@
         <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
         <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P45" t="s">
         <v>19</v>
@@ -3142,19 +3142,19 @@
         <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
         <v>19</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M46" t="s">
         <v>19</v>
       </c>
       <c r="N46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O46" t="s">
         <v>19</v>
@@ -3201,19 +3201,19 @@
         <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
         <v>19</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O47" t="s">
         <v>24</v>
@@ -3222,10 +3222,10 @@
         <v>19</v>
       </c>
       <c r="Q47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S47" t="s">
         <v>21</v>
@@ -3257,7 +3257,7 @@
         <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
         <v>25</v>
@@ -3266,25 +3266,25 @@
         <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P48" t="s">
         <v>19</v>
       </c>
       <c r="Q48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R48" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S48" t="s">
         <v>21</v>
@@ -3316,22 +3316,22 @@
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
         <v>19</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49" t="s">
         <v>19</v>
       </c>
       <c r="N49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O49" t="s">
         <v>19</v>
@@ -3340,10 +3340,10 @@
         <v>19</v>
       </c>
       <c r="Q49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S49" t="s">
         <v>21</v>
@@ -3375,22 +3375,22 @@
         <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
         <v>19</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N50" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O50" t="s">
         <v>24</v>
@@ -3399,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="Q50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R50" t="s">
         <v>19</v>
@@ -3434,34 +3434,34 @@
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N51" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O51" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P51" t="s">
         <v>19</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S51" t="s">
         <v>21</v>
@@ -3555,13 +3555,13 @@
         <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
         <v>19</v>
       </c>
       <c r="L53" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M53" t="s">
         <v>19</v>
@@ -3614,16 +3614,16 @@
         <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M54" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N54" t="s">
         <v>19</v>
@@ -3673,19 +3673,19 @@
         <v>19</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s">
         <v>19</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M55" t="s">
         <v>19</v>
       </c>
       <c r="N55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O55" t="s">
         <v>19</v>
@@ -3729,22 +3729,22 @@
         <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M56" t="s">
         <v>19</v>
       </c>
       <c r="N56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O56" t="s">
         <v>19</v>
@@ -3753,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R56" t="s">
         <v>19</v>
@@ -3791,19 +3791,19 @@
         <v>19</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K57" t="s">
         <v>19</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M57" t="s">
         <v>19</v>
       </c>
       <c r="N57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O57" t="s">
         <v>19</v>
@@ -3815,7 +3815,7 @@
         <v>19</v>
       </c>
       <c r="R57" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S57" t="s">
         <v>21</v>
@@ -3850,22 +3850,22 @@
         <v>19</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K58" t="s">
         <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P58" t="s">
         <v>19</v>
@@ -3874,7 +3874,7 @@
         <v>19</v>
       </c>
       <c r="R58" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S58" t="s">
         <v>20</v>
@@ -3906,7 +3906,7 @@
         <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
@@ -3930,7 +3930,7 @@
         <v>19</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R59" t="s">
         <v>19</v>
@@ -3968,22 +3968,22 @@
         <v>19</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
         <v>19</v>
       </c>
       <c r="L60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P60" t="s">
         <v>19</v>
@@ -4024,34 +4024,34 @@
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J61" t="s">
         <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M61" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P61" t="s">
         <v>19</v>
       </c>
       <c r="Q61" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R61" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S61" t="s">
         <v>21</v>
@@ -4083,22 +4083,22 @@
         <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O62" t="s">
         <v>24</v>
@@ -4107,7 +4107,7 @@
         <v>19</v>
       </c>
       <c r="Q62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R62" t="s">
         <v>19</v>
@@ -4142,10 +4142,10 @@
         <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s">
         <v>19</v>
@@ -4166,10 +4166,10 @@
         <v>19</v>
       </c>
       <c r="Q63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S63" t="s">
         <v>25</v>
@@ -4201,31 +4201,31 @@
         <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J64" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P64" t="s">
         <v>19</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R64" t="s">
         <v>19</v>
@@ -4260,34 +4260,34 @@
         <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s">
         <v>19</v>
       </c>
       <c r="L65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P65" t="s">
         <v>19</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S65" t="s">
         <v>21</v>
@@ -4319,7 +4319,7 @@
         <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J66" t="s">
         <v>25</v>
@@ -4328,13 +4328,13 @@
         <v>19</v>
       </c>
       <c r="L66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M66" t="s">
         <v>19</v>
       </c>
       <c r="N66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O66" t="s">
         <v>19</v>
@@ -4343,10 +4343,10 @@
         <v>19</v>
       </c>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R66" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S66" t="s">
         <v>21</v>
@@ -4378,31 +4378,31 @@
         <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s">
         <v>19</v>
       </c>
       <c r="L67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P67" t="s">
         <v>19</v>
       </c>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R67" t="s">
         <v>19</v>
@@ -4437,34 +4437,34 @@
         <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J68" t="s">
         <v>25</v>
       </c>
       <c r="K68" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P68" t="s">
         <v>19</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R68" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S68" t="s">
         <v>25</v>
@@ -4496,34 +4496,34 @@
         <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N69" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O69" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P69" t="s">
         <v>19</v>
       </c>
       <c r="Q69" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R69" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S69" t="s">
         <v>21</v>
@@ -4555,22 +4555,22 @@
         <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N70" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O70" t="s">
         <v>24</v>
@@ -4579,7 +4579,7 @@
         <v>19</v>
       </c>
       <c r="Q70" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R70" t="s">
         <v>19</v>
@@ -4614,13 +4614,13 @@
         <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L71" t="s">
         <v>19</v>
@@ -4673,10 +4673,10 @@
         <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K72" t="s">
         <v>26</v>
@@ -4697,10 +4697,10 @@
         <v>26</v>
       </c>
       <c r="Q72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S72" t="s">
         <v>26</v>
@@ -4732,7 +4732,7 @@
         <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J73" t="s">
         <v>25</v>
@@ -4741,25 +4741,25 @@
         <v>19</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N73" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O73" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P73" t="s">
         <v>19</v>
       </c>
       <c r="Q73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S73" t="s">
         <v>21</v>
@@ -4791,7 +4791,7 @@
         <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
@@ -4815,7 +4815,7 @@
         <v>19</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R74" t="s">
         <v>19</v>
@@ -4850,22 +4850,22 @@
         <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N75" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O75" t="s">
         <v>19</v>
@@ -4874,10 +4874,10 @@
         <v>19</v>
       </c>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S75" t="s">
         <v>21</v>
@@ -4912,19 +4912,19 @@
         <v>19</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
         <v>19</v>
       </c>
       <c r="L76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M76" t="s">
         <v>19</v>
       </c>
       <c r="N76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O76" t="s">
         <v>19</v>
@@ -4936,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="R76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S76" t="s">
         <v>21</v>
@@ -4968,34 +4968,34 @@
         <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M77" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P77" t="s">
         <v>19</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S77" t="s">
         <v>21</v>
@@ -5027,7 +5027,7 @@
         <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J78" t="s">
         <v>25</v>
@@ -5036,13 +5036,13 @@
         <v>19</v>
       </c>
       <c r="L78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N78" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O78" t="s">
         <v>24</v>
@@ -5051,10 +5051,10 @@
         <v>19</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S78" t="s">
         <v>25</v>
@@ -5089,22 +5089,22 @@
         <v>19</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
         <v>19</v>
       </c>
       <c r="L79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P79" t="s">
         <v>19</v>
@@ -5113,7 +5113,7 @@
         <v>19</v>
       </c>
       <c r="R79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S79" t="s">
         <v>21</v>
@@ -5145,22 +5145,22 @@
         <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
         <v>19</v>
       </c>
       <c r="L80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M80" t="s">
         <v>19</v>
       </c>
       <c r="N80" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O80" t="s">
         <v>19</v>
@@ -5169,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="Q80" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R80" t="s">
         <v>19</v>
@@ -5204,16 +5204,16 @@
         <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>19</v>
       </c>
       <c r="L81" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M81" t="s">
         <v>19</v>
@@ -5228,10 +5228,10 @@
         <v>19</v>
       </c>
       <c r="Q81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S81" t="s">
         <v>21</v>
@@ -5263,34 +5263,34 @@
         <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J82" t="s">
         <v>25</v>
       </c>
       <c r="K82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N82" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O82" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P82" t="s">
         <v>19</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S82" t="s">
         <v>21</v>
@@ -5322,25 +5322,25 @@
         <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N83" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O83" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P83" t="s">
         <v>19</v>
@@ -5381,10 +5381,10 @@
         <v>24</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K84" t="s">
         <v>26</v>
@@ -5405,10 +5405,10 @@
         <v>26</v>
       </c>
       <c r="Q84" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S84" t="s">
         <v>26</v>
@@ -5440,25 +5440,25 @@
         <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J85" t="s">
         <v>25</v>
       </c>
       <c r="K85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N85" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O85" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P85" t="s">
         <v>19</v>
@@ -5467,7 +5467,7 @@
         <v>19</v>
       </c>
       <c r="R85" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S85" t="s">
         <v>21</v>
@@ -5499,34 +5499,34 @@
         <v>24</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K86" t="s">
         <v>19</v>
       </c>
       <c r="L86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M86" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N86" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O86" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P86" t="s">
         <v>19</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R86" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S86" t="s">
         <v>21</v>
@@ -5558,34 +5558,34 @@
         <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M87" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P87" t="s">
         <v>19</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R87" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S87" t="s">
         <v>21</v>
@@ -5626,13 +5626,13 @@
         <v>19</v>
       </c>
       <c r="L88" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M88" t="s">
         <v>19</v>
       </c>
       <c r="N88" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O88" t="s">
         <v>19</v>
@@ -5679,19 +5679,19 @@
         <v>19</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K89" t="s">
         <v>19</v>
       </c>
       <c r="L89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M89" t="s">
         <v>19</v>
       </c>
       <c r="N89" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O89" t="s">
         <v>19</v>
@@ -5735,22 +5735,22 @@
         <v>24</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K90" t="s">
         <v>19</v>
       </c>
       <c r="L90" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M90" t="s">
         <v>19</v>
       </c>
       <c r="N90" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O90" t="s">
         <v>19</v>
@@ -5759,10 +5759,10 @@
         <v>19</v>
       </c>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S90" t="s">
         <v>21</v>
@@ -5797,19 +5797,19 @@
         <v>19</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K91" t="s">
         <v>19</v>
       </c>
       <c r="L91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M91" t="s">
         <v>19</v>
       </c>
       <c r="N91" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O91" t="s">
         <v>19</v>
@@ -5856,28 +5856,28 @@
         <v>19</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
         <v>19</v>
       </c>
       <c r="L92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M92" t="s">
         <v>19</v>
       </c>
       <c r="N92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O92" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P92" t="s">
         <v>19</v>
       </c>
       <c r="Q92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R92" t="s">
         <v>19</v>
@@ -5912,22 +5912,22 @@
         <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
         <v>19</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M93" t="s">
         <v>19</v>
       </c>
       <c r="N93" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O93" t="s">
         <v>19</v>
@@ -5936,10 +5936,10 @@
         <v>19</v>
       </c>
       <c r="Q93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S93" t="s">
         <v>21</v>
@@ -5971,7 +5971,7 @@
         <v>24</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -5995,7 +5995,7 @@
         <v>19</v>
       </c>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R94" t="s">
         <v>19</v>
@@ -6030,25 +6030,25 @@
         <v>24</v>
       </c>
       <c r="I95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M95" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N95" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O95" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P95" t="s">
         <v>19</v>
@@ -6057,7 +6057,7 @@
         <v>19</v>
       </c>
       <c r="R95" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S95" t="s">
         <v>25</v>
@@ -6089,22 +6089,22 @@
         <v>24</v>
       </c>
       <c r="I96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J96" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N96" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O96" t="s">
         <v>24</v>
@@ -6113,10 +6113,10 @@
         <v>19</v>
       </c>
       <c r="Q96" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S96" t="s">
         <v>21</v>
@@ -6148,34 +6148,34 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
         <v>19</v>
       </c>
       <c r="L97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M97" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N97" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O97" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P97" t="s">
         <v>19</v>
       </c>
       <c r="Q97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S97" t="s">
         <v>21</v>
@@ -6207,10 +6207,10 @@
         <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K98" t="s">
         <v>19</v>
@@ -6219,22 +6219,22 @@
         <v>19</v>
       </c>
       <c r="M98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N98" t="s">
         <v>19</v>
       </c>
       <c r="O98" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P98" t="s">
         <v>19</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R98" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S98" t="s">
         <v>25</v>
@@ -6266,34 +6266,34 @@
         <v>24</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J99" t="s">
         <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M99" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N99" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O99" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P99" t="s">
         <v>19</v>
       </c>
       <c r="Q99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R99" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S99" t="s">
         <v>21</v>
@@ -6328,19 +6328,19 @@
         <v>19</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K100" t="s">
         <v>19</v>
       </c>
       <c r="L100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M100" t="s">
         <v>19</v>
       </c>
       <c r="N100" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O100" t="s">
         <v>19</v>
@@ -6352,7 +6352,7 @@
         <v>19</v>
       </c>
       <c r="R100" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S100" t="s">
         <v>25</v>
@@ -6384,22 +6384,22 @@
         <v>24</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
         <v>19</v>
       </c>
       <c r="L101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M101" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N101" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O101" t="s">
         <v>24</v>
@@ -6408,10 +6408,10 @@
         <v>19</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S101" t="s">
         <v>21</v>
@@ -6443,10 +6443,10 @@
         <v>24</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K102" t="s">
         <v>26</v>
@@ -6467,10 +6467,10 @@
         <v>26</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S102" t="s">
         <v>26</v>
@@ -6564,19 +6564,19 @@
         <v>19</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K104" t="s">
         <v>19</v>
       </c>
       <c r="L104" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M104" t="s">
         <v>19</v>
       </c>
       <c r="N104" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O104" t="s">
         <v>19</v>
@@ -6588,7 +6588,7 @@
         <v>19</v>
       </c>
       <c r="R104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S104" t="s">
         <v>21</v>
@@ -6623,19 +6623,19 @@
         <v>19</v>
       </c>
       <c r="J105" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N105" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O105" t="s">
         <v>19</v>
@@ -6679,22 +6679,22 @@
         <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K106" t="s">
         <v>19</v>
       </c>
       <c r="L106" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M106" t="s">
         <v>19</v>
       </c>
       <c r="N106" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O106" t="s">
         <v>19</v>
@@ -6703,10 +6703,10 @@
         <v>19</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R106" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S106" t="s">
         <v>21</v>
@@ -6741,19 +6741,19 @@
         <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K107" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M107" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N107" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O107" t="s">
         <v>19</v>
@@ -6806,13 +6806,13 @@
         <v>19</v>
       </c>
       <c r="L108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M108" t="s">
         <v>19</v>
       </c>
       <c r="N108" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O108" t="s">
         <v>19</v>
@@ -6856,22 +6856,22 @@
         <v>24</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J109" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K109" t="s">
         <v>19</v>
       </c>
       <c r="L109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M109" t="s">
         <v>19</v>
       </c>
       <c r="N109" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O109" t="s">
         <v>19</v>
@@ -6880,10 +6880,10 @@
         <v>19</v>
       </c>
       <c r="Q109" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R109" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S109" t="s">
         <v>21</v>
@@ -6915,22 +6915,22 @@
         <v>24</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K110" t="s">
         <v>19</v>
       </c>
       <c r="L110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M110" t="s">
         <v>19</v>
       </c>
       <c r="N110" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O110" t="s">
         <v>19</v>
@@ -6939,10 +6939,10 @@
         <v>19</v>
       </c>
       <c r="Q110" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R110" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S110" t="s">
         <v>21</v>
@@ -6983,13 +6983,13 @@
         <v>19</v>
       </c>
       <c r="L111" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M111" t="s">
         <v>19</v>
       </c>
       <c r="N111" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O111" t="s">
         <v>19</v>
@@ -7036,13 +7036,13 @@
         <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K112" t="s">
         <v>19</v>
       </c>
       <c r="L112" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M112" t="s">
         <v>19</v>
@@ -7095,19 +7095,19 @@
         <v>19</v>
       </c>
       <c r="J113" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K113" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M113" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N113" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O113" t="s">
         <v>19</v>
@@ -7151,7 +7151,7 @@
         <v>24</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J114" t="s">
         <v>25</v>
@@ -7160,7 +7160,7 @@
         <v>19</v>
       </c>
       <c r="L114" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M114" t="s">
         <v>19</v>
@@ -7175,10 +7175,10 @@
         <v>19</v>
       </c>
       <c r="Q114" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R114" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S114" t="s">
         <v>21</v>
@@ -7210,22 +7210,22 @@
         <v>24</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K115" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L115" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M115" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N115" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O115" t="s">
         <v>19</v>
@@ -7234,10 +7234,10 @@
         <v>19</v>
       </c>
       <c r="Q115" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R115" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S115" t="s">
         <v>21</v>
@@ -7269,22 +7269,22 @@
         <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J116" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K116" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M116" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N116" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O116" t="s">
         <v>24</v>
@@ -7293,7 +7293,7 @@
         <v>19</v>
       </c>
       <c r="Q116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R116" t="s">
         <v>19</v>
@@ -7331,31 +7331,31 @@
         <v>19</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K117" t="s">
         <v>19</v>
       </c>
       <c r="L117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M117" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N117" t="s">
         <v>24</v>
       </c>
       <c r="O117" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P117" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q117" t="s">
         <v>19</v>
       </c>
       <c r="R117" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S117" t="s">
         <v>21</v>
@@ -7387,34 +7387,34 @@
         <v>24</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K118" t="s">
         <v>19</v>
       </c>
       <c r="L118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M118" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N118" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O118" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P118" t="s">
         <v>19</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R118" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S118" t="s">
         <v>25</v>
@@ -7446,19 +7446,19 @@
         <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L119" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M119" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N119" t="s">
         <v>19</v>
@@ -7470,7 +7470,7 @@
         <v>19</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R119" t="s">
         <v>19</v>
@@ -7505,22 +7505,22 @@
         <v>24</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J120" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K120" t="s">
         <v>19</v>
       </c>
       <c r="L120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M120" t="s">
         <v>19</v>
       </c>
       <c r="N120" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O120" t="s">
         <v>19</v>
@@ -7529,10 +7529,10 @@
         <v>19</v>
       </c>
       <c r="Q120" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R120" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S120" t="s">
         <v>21</v>
@@ -7564,22 +7564,22 @@
         <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K121" t="s">
         <v>19</v>
       </c>
       <c r="L121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M121" t="s">
         <v>19</v>
       </c>
       <c r="N121" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O121" t="s">
         <v>19</v>
@@ -7588,10 +7588,10 @@
         <v>19</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R121" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S121" t="s">
         <v>25</v>
@@ -7632,13 +7632,13 @@
         <v>19</v>
       </c>
       <c r="L122" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M122" t="s">
         <v>19</v>
       </c>
       <c r="N122" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O122" t="s">
         <v>19</v>
@@ -7682,22 +7682,22 @@
         <v>24</v>
       </c>
       <c r="I123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
       </c>
       <c r="K123" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L123" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M123" t="s">
         <v>19</v>
       </c>
       <c r="N123" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O123" t="s">
         <v>19</v>
@@ -7706,7 +7706,7 @@
         <v>19</v>
       </c>
       <c r="Q123" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R123" t="s">
         <v>19</v>
@@ -7744,19 +7744,19 @@
         <v>19</v>
       </c>
       <c r="J124" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K124" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N124" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O124" t="s">
         <v>24</v>
@@ -7765,7 +7765,7 @@
         <v>19</v>
       </c>
       <c r="Q124" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R124" t="s">
         <v>19</v>
@@ -7809,16 +7809,16 @@
         <v>19</v>
       </c>
       <c r="L125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N125" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O125" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P125" t="s">
         <v>19</v>
@@ -7847,34 +7847,34 @@
         <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G126" t="s">
         <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
       </c>
       <c r="J126" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K126" t="s">
         <v>19</v>
       </c>
       <c r="L126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M126" t="s">
         <v>19</v>
       </c>
       <c r="N126" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O126" t="s">
         <v>19</v>
@@ -7889,7 +7889,7 @@
         <v>19</v>
       </c>
       <c r="S126" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -7921,22 +7921,22 @@
         <v>19</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K127" t="s">
         <v>19</v>
       </c>
       <c r="L127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M127" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N127" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O127" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P127" t="s">
         <v>19</v>
@@ -7977,7 +7977,7 @@
         <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J128" t="s">
         <v>25</v>
@@ -7986,25 +7986,25 @@
         <v>19</v>
       </c>
       <c r="L128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M128" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N128" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O128" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P128" t="s">
         <v>19</v>
       </c>
       <c r="Q128" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R128" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S128" t="s">
         <v>21</v>
@@ -8036,19 +8036,19 @@
         <v>24</v>
       </c>
       <c r="I129" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J129" t="s">
         <v>25</v>
       </c>
       <c r="K129" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L129" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M129" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N129" t="s">
         <v>19</v>
@@ -8060,10 +8060,10 @@
         <v>19</v>
       </c>
       <c r="Q129" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R129" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S129" t="s">
         <v>25</v>
@@ -8098,19 +8098,19 @@
         <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K130" t="s">
         <v>19</v>
       </c>
       <c r="L130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M130" t="s">
         <v>19</v>
       </c>
       <c r="N130" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O130" t="s">
         <v>19</v>
@@ -8122,7 +8122,7 @@
         <v>19</v>
       </c>
       <c r="R130" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S130" t="s">
         <v>21</v>
@@ -8157,19 +8157,19 @@
         <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M131" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N131" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O131" t="s">
         <v>19</v>
@@ -8222,13 +8222,13 @@
         <v>19</v>
       </c>
       <c r="L132" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M132" t="s">
         <v>19</v>
       </c>
       <c r="N132" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O132" t="s">
         <v>19</v>
@@ -8272,34 +8272,34 @@
         <v>24</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K133" t="s">
         <v>19</v>
       </c>
       <c r="L133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M133" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N133" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O133" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P133" t="s">
         <v>19</v>
       </c>
       <c r="Q133" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S133" t="s">
         <v>21</v>
@@ -8331,7 +8331,7 @@
         <v>24</v>
       </c>
       <c r="I134" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J134" t="s">
         <v>25</v>
@@ -8340,13 +8340,13 @@
         <v>19</v>
       </c>
       <c r="L134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M134" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N134" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O134" t="s">
         <v>24</v>
@@ -8355,10 +8355,10 @@
         <v>19</v>
       </c>
       <c r="Q134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R134" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S134" t="s">
         <v>21</v>
@@ -8449,16 +8449,16 @@
         <v>24</v>
       </c>
       <c r="I136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J136" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K136" t="s">
         <v>19</v>
       </c>
       <c r="L136" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M136" t="s">
         <v>19</v>
@@ -8473,7 +8473,7 @@
         <v>19</v>
       </c>
       <c r="Q136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R136" t="s">
         <v>19</v>
@@ -8511,22 +8511,22 @@
         <v>19</v>
       </c>
       <c r="J137" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K137" t="s">
         <v>19</v>
       </c>
       <c r="L137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N137" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O137" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P137" t="s">
         <v>19</v>
@@ -8535,7 +8535,7 @@
         <v>19</v>
       </c>
       <c r="R137" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S137" t="s">
         <v>21</v>
@@ -8567,7 +8567,7 @@
         <v>24</v>
       </c>
       <c r="I138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J138" t="s">
         <v>19</v>
@@ -8576,13 +8576,13 @@
         <v>19</v>
       </c>
       <c r="L138" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M138" t="s">
         <v>19</v>
       </c>
       <c r="N138" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O138" t="s">
         <v>19</v>
@@ -8591,7 +8591,7 @@
         <v>19</v>
       </c>
       <c r="Q138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R138" t="s">
         <v>19</v>
@@ -8629,19 +8629,19 @@
         <v>19</v>
       </c>
       <c r="J139" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K139" t="s">
         <v>19</v>
       </c>
       <c r="L139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M139" t="s">
         <v>19</v>
       </c>
       <c r="N139" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O139" t="s">
         <v>19</v>
@@ -8685,7 +8685,7 @@
         <v>24</v>
       </c>
       <c r="I140" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J140" t="s">
         <v>19</v>
@@ -8694,22 +8694,22 @@
         <v>19</v>
       </c>
       <c r="L140" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M140" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N140" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O140" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P140" t="s">
         <v>19</v>
       </c>
       <c r="Q140" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R140" t="s">
         <v>19</v>
@@ -8744,25 +8744,25 @@
         <v>24</v>
       </c>
       <c r="I141" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J141" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M141" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N141" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O141" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P141" t="s">
         <v>19</v>
@@ -8803,10 +8803,10 @@
         <v>24</v>
       </c>
       <c r="I142" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K142" t="s">
         <v>26</v>
@@ -8827,10 +8827,10 @@
         <v>26</v>
       </c>
       <c r="Q142" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S142" t="s">
         <v>26</v>
@@ -8862,34 +8862,34 @@
         <v>24</v>
       </c>
       <c r="I143" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J143" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N143" t="s">
+        <v>24</v>
+      </c>
+      <c r="O143" t="s">
+        <v>24</v>
+      </c>
+      <c r="P143" t="s">
         <v>22</v>
       </c>
-      <c r="O143" t="s">
+      <c r="Q143" t="s">
         <v>22</v>
       </c>
-      <c r="P143" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>19</v>
-      </c>
       <c r="R143" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S143" t="s">
         <v>21</v>
@@ -8900,58 +8900,58 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H144" t="s">
         <v>24</v>
       </c>
       <c r="I144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R144" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -8980,10 +8980,10 @@
         <v>23</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J145" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K145" t="s">
         <v>19</v>
@@ -9004,10 +9004,10 @@
         <v>19</v>
       </c>
       <c r="Q145" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R145" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S145" t="s">
         <v>21</v>
@@ -9048,13 +9048,13 @@
         <v>19</v>
       </c>
       <c r="L146" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M146" t="s">
         <v>19</v>
       </c>
       <c r="N146" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O146" t="s">
         <v>19</v>
@@ -9098,10 +9098,10 @@
         <v>24</v>
       </c>
       <c r="I147" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J147" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K147" t="s">
         <v>26</v>
@@ -9122,10 +9122,10 @@
         <v>26</v>
       </c>
       <c r="Q147" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R147" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S147" t="s">
         <v>26</v>
@@ -9160,31 +9160,31 @@
         <v>25</v>
       </c>
       <c r="J148" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K148" t="s">
         <v>25</v>
       </c>
       <c r="L148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N148" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O148" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P148" t="s">
         <v>19</v>
       </c>
       <c r="Q148" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S148" t="s">
         <v>21</v>
@@ -9216,25 +9216,25 @@
         <v>24</v>
       </c>
       <c r="I149" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J149" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K149" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M149" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N149" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O149" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P149" t="s">
         <v>19</v>
@@ -9284,13 +9284,13 @@
         <v>19</v>
       </c>
       <c r="L150" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M150" t="s">
         <v>19</v>
       </c>
       <c r="N150" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O150" t="s">
         <v>19</v>
@@ -9334,22 +9334,22 @@
         <v>24</v>
       </c>
       <c r="I151" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J151" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K151" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M151" t="s">
         <v>19</v>
       </c>
       <c r="N151" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O151" t="s">
         <v>19</v>
@@ -9393,25 +9393,25 @@
         <v>24</v>
       </c>
       <c r="I152" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J152" t="s">
         <v>25</v>
       </c>
       <c r="K152" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M152" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N152" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O152" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P152" t="s">
         <v>19</v>
@@ -9420,7 +9420,7 @@
         <v>19</v>
       </c>
       <c r="R152" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S152" t="s">
         <v>21</v>
@@ -9452,34 +9452,34 @@
         <v>24</v>
       </c>
       <c r="I153" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J153" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K153" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M153" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N153" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O153" t="s">
+        <v>24</v>
+      </c>
+      <c r="P153" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q153" t="s">
         <v>22</v>
       </c>
-      <c r="P153" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>25</v>
-      </c>
       <c r="R153" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S153" t="s">
         <v>21</v>
@@ -9511,22 +9511,22 @@
         <v>24</v>
       </c>
       <c r="I154" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J154" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K154" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M154" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N154" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O154" t="s">
         <v>24</v>
@@ -9535,7 +9535,7 @@
         <v>19</v>
       </c>
       <c r="Q154" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R154" t="s">
         <v>19</v>
@@ -9579,16 +9579,16 @@
         <v>19</v>
       </c>
       <c r="L155" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M155" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N155" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O155" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P155" t="s">
         <v>19</v>
@@ -9632,19 +9632,19 @@
         <v>19</v>
       </c>
       <c r="J156" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K156" t="s">
         <v>19</v>
       </c>
       <c r="L156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M156" t="s">
         <v>19</v>
       </c>
       <c r="N156" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O156" t="s">
         <v>19</v>
@@ -9688,16 +9688,16 @@
         <v>24</v>
       </c>
       <c r="I157" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J157" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K157" t="s">
         <v>19</v>
       </c>
       <c r="L157" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M157" t="s">
         <v>19</v>
@@ -9712,10 +9712,10 @@
         <v>19</v>
       </c>
       <c r="Q157" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R157" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S157" t="s">
         <v>21</v>
@@ -9747,25 +9747,25 @@
         <v>24</v>
       </c>
       <c r="I158" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J158" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K158" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M158" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N158" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O158" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P158" t="s">
         <v>19</v>
@@ -9806,16 +9806,16 @@
         <v>24</v>
       </c>
       <c r="I159" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J159" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K159" t="s">
         <v>19</v>
       </c>
       <c r="L159" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M159" t="s">
         <v>19</v>
@@ -9830,10 +9830,10 @@
         <v>19</v>
       </c>
       <c r="Q159" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R159" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S159" t="s">
         <v>21</v>
@@ -9865,10 +9865,10 @@
         <v>24</v>
       </c>
       <c r="I160" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J160" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K160" t="s">
         <v>19</v>
@@ -9889,10 +9889,10 @@
         <v>19</v>
       </c>
       <c r="Q160" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R160" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S160" t="s">
         <v>21</v>
@@ -9924,7 +9924,7 @@
         <v>24</v>
       </c>
       <c r="I161" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J161" t="s">
         <v>25</v>
@@ -9933,13 +9933,13 @@
         <v>19</v>
       </c>
       <c r="L161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M161" t="s">
         <v>19</v>
       </c>
       <c r="N161" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O161" t="s">
         <v>19</v>
@@ -9948,10 +9948,10 @@
         <v>19</v>
       </c>
       <c r="Q161" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R161" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S161" t="s">
         <v>21</v>
@@ -9983,22 +9983,22 @@
         <v>24</v>
       </c>
       <c r="I162" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J162" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K162" t="s">
         <v>19</v>
       </c>
       <c r="L162" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M162" t="s">
         <v>19</v>
       </c>
       <c r="N162" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O162" t="s">
         <v>19</v>
@@ -10007,10 +10007,10 @@
         <v>19</v>
       </c>
       <c r="Q162" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R162" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S162" t="s">
         <v>21</v>
@@ -10042,25 +10042,25 @@
         <v>24</v>
       </c>
       <c r="I163" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J163" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K163" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M163" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N163" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O163" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P163" t="s">
         <v>19</v>
@@ -10110,16 +10110,16 @@
         <v>19</v>
       </c>
       <c r="L164" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M164" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N164" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O164" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P164" t="s">
         <v>19</v>
@@ -10169,13 +10169,13 @@
         <v>19</v>
       </c>
       <c r="L165" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M165" t="s">
         <v>19</v>
       </c>
       <c r="N165" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O165" t="s">
         <v>19</v>
@@ -10219,25 +10219,25 @@
         <v>24</v>
       </c>
       <c r="I166" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J166" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K166" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M166" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N166" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O166" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P166" t="s">
         <v>19</v>
@@ -10287,16 +10287,16 @@
         <v>19</v>
       </c>
       <c r="L167" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M167" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N167" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O167" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P167" t="s">
         <v>19</v>
@@ -10340,19 +10340,19 @@
         <v>19</v>
       </c>
       <c r="J168" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K168" t="s">
         <v>19</v>
       </c>
       <c r="L168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M168" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N168" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O168" t="s">
         <v>24</v>
@@ -10361,7 +10361,7 @@
         <v>19</v>
       </c>
       <c r="Q168" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R168" t="s">
         <v>19</v>
@@ -10399,13 +10399,13 @@
         <v>19</v>
       </c>
       <c r="J169" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K169" t="s">
         <v>19</v>
       </c>
       <c r="L169" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M169" t="s">
         <v>19</v>
@@ -10458,19 +10458,19 @@
         <v>19</v>
       </c>
       <c r="J170" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K170" t="s">
         <v>19</v>
       </c>
       <c r="L170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M170" t="s">
         <v>19</v>
       </c>
       <c r="N170" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O170" t="s">
         <v>19</v>
@@ -10514,31 +10514,31 @@
         <v>24</v>
       </c>
       <c r="I171" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J171" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K171" t="s">
         <v>19</v>
       </c>
       <c r="L171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M171" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N171" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O171" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P171" t="s">
         <v>19</v>
       </c>
       <c r="Q171" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R171" t="s">
         <v>19</v>
@@ -10576,19 +10576,19 @@
         <v>19</v>
       </c>
       <c r="J172" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K172" t="s">
         <v>19</v>
       </c>
       <c r="L172" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M172" t="s">
         <v>19</v>
       </c>
       <c r="N172" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O172" t="s">
         <v>19</v>
@@ -10600,7 +10600,7 @@
         <v>19</v>
       </c>
       <c r="R172" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S172" t="s">
         <v>21</v>
@@ -10635,19 +10635,19 @@
         <v>19</v>
       </c>
       <c r="J173" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K173" t="s">
         <v>19</v>
       </c>
       <c r="L173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M173" t="s">
         <v>19</v>
       </c>
       <c r="N173" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O173" t="s">
         <v>19</v>
@@ -10659,7 +10659,7 @@
         <v>19</v>
       </c>
       <c r="R173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S173" t="s">
         <v>21</v>
@@ -10694,22 +10694,22 @@
         <v>19</v>
       </c>
       <c r="J174" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K174" t="s">
         <v>19</v>
       </c>
       <c r="L174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M174" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N174" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O174" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P174" t="s">
         <v>19</v>
@@ -10718,7 +10718,7 @@
         <v>19</v>
       </c>
       <c r="R174" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S174" t="s">
         <v>21</v>
@@ -10750,7 +10750,7 @@
         <v>24</v>
       </c>
       <c r="I175" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J175" t="s">
         <v>19</v>
@@ -10759,13 +10759,13 @@
         <v>19</v>
       </c>
       <c r="L175" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M175" t="s">
         <v>19</v>
       </c>
       <c r="N175" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O175" t="s">
         <v>19</v>
@@ -10774,7 +10774,7 @@
         <v>19</v>
       </c>
       <c r="Q175" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R175" t="s">
         <v>19</v>
@@ -10809,25 +10809,25 @@
         <v>24</v>
       </c>
       <c r="I176" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J176" t="s">
         <v>25</v>
       </c>
       <c r="K176" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L176" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M176" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N176" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O176" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P176" t="s">
         <v>19</v>
@@ -10836,7 +10836,7 @@
         <v>19</v>
       </c>
       <c r="R176" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S176" t="s">
         <v>25</v>
@@ -10868,7 +10868,7 @@
         <v>24</v>
       </c>
       <c r="I177" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J177" t="s">
         <v>25</v>
@@ -10877,25 +10877,25 @@
         <v>19</v>
       </c>
       <c r="L177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M177" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N177" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P177" t="s">
         <v>19</v>
       </c>
       <c r="Q177" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R177" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S177" t="s">
         <v>21</v>
@@ -10927,7 +10927,7 @@
         <v>24</v>
       </c>
       <c r="I178" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J178" t="s">
         <v>19</v>
@@ -10936,13 +10936,13 @@
         <v>19</v>
       </c>
       <c r="L178" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M178" t="s">
         <v>19</v>
       </c>
       <c r="N178" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O178" t="s">
         <v>19</v>
@@ -10951,7 +10951,7 @@
         <v>19</v>
       </c>
       <c r="Q178" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R178" t="s">
         <v>19</v>
@@ -10986,22 +10986,22 @@
         <v>24</v>
       </c>
       <c r="I179" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J179" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K179" t="s">
         <v>19</v>
       </c>
       <c r="L179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M179" t="s">
         <v>19</v>
       </c>
       <c r="N179" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O179" t="s">
         <v>19</v>
@@ -11010,10 +11010,10 @@
         <v>19</v>
       </c>
       <c r="Q179" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S179" t="s">
         <v>21</v>
@@ -11054,13 +11054,13 @@
         <v>19</v>
       </c>
       <c r="L180" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M180" t="s">
         <v>19</v>
       </c>
       <c r="N180" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O180" t="s">
         <v>19</v>
@@ -11104,22 +11104,22 @@
         <v>24</v>
       </c>
       <c r="I181" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J181" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K181" t="s">
         <v>19</v>
       </c>
       <c r="L181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M181" t="s">
         <v>19</v>
       </c>
       <c r="N181" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O181" t="s">
         <v>19</v>
@@ -11128,10 +11128,10 @@
         <v>19</v>
       </c>
       <c r="Q181" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R181" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S181" t="s">
         <v>21</v>
@@ -11166,19 +11166,19 @@
         <v>19</v>
       </c>
       <c r="J182" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K182" t="s">
         <v>19</v>
       </c>
       <c r="L182" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M182" t="s">
         <v>19</v>
       </c>
       <c r="N182" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O182" t="s">
         <v>19</v>
@@ -11190,7 +11190,7 @@
         <v>19</v>
       </c>
       <c r="R182" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S182" t="s">
         <v>25</v>
@@ -11222,22 +11222,22 @@
         <v>24</v>
       </c>
       <c r="I183" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J183" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K183" t="s">
         <v>19</v>
       </c>
       <c r="L183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M183" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N183" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O183" t="s">
         <v>24</v>
@@ -11246,10 +11246,10 @@
         <v>19</v>
       </c>
       <c r="Q183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R183" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S183" t="s">
         <v>25</v>
@@ -11284,22 +11284,22 @@
         <v>19</v>
       </c>
       <c r="J184" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K184" t="s">
         <v>19</v>
       </c>
       <c r="L184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M184" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N184" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O184" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P184" t="s">
         <v>19</v>
@@ -11340,7 +11340,7 @@
         <v>24</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J185" t="s">
         <v>19</v>
@@ -11349,13 +11349,13 @@
         <v>19</v>
       </c>
       <c r="L185" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M185" t="s">
         <v>19</v>
       </c>
       <c r="N185" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O185" t="s">
         <v>19</v>
@@ -11364,7 +11364,7 @@
         <v>19</v>
       </c>
       <c r="Q185" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R185" t="s">
         <v>19</v>
@@ -11402,22 +11402,22 @@
         <v>19</v>
       </c>
       <c r="J186" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K186" t="s">
         <v>19</v>
       </c>
       <c r="L186" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M186" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N186" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O186" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P186" t="s">
         <v>19</v>
@@ -11461,19 +11461,19 @@
         <v>19</v>
       </c>
       <c r="J187" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K187" t="s">
         <v>19</v>
       </c>
       <c r="L187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M187" t="s">
         <v>19</v>
       </c>
       <c r="N187" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O187" t="s">
         <v>19</v>
@@ -11520,19 +11520,19 @@
         <v>19</v>
       </c>
       <c r="J188" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K188" t="s">
         <v>19</v>
       </c>
       <c r="L188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M188" t="s">
         <v>19</v>
       </c>
       <c r="N188" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O188" t="s">
         <v>19</v>
@@ -11579,22 +11579,22 @@
         <v>19</v>
       </c>
       <c r="J189" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K189" t="s">
         <v>19</v>
       </c>
       <c r="L189" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M189" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N189" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O189" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P189" t="s">
         <v>19</v>
@@ -11635,22 +11635,22 @@
         <v>24</v>
       </c>
       <c r="I190" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J190" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K190" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L190" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M190" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N190" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O190" t="s">
         <v>19</v>
@@ -11659,7 +11659,7 @@
         <v>19</v>
       </c>
       <c r="Q190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R190" t="s">
         <v>19</v>
@@ -11676,7 +11676,7 @@
         <v>19</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
         <v>19</v>
@@ -11685,7 +11685,7 @@
         <v>23</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G191" t="s">
         <v>19</v>
@@ -11694,22 +11694,22 @@
         <v>24</v>
       </c>
       <c r="I191" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J191" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K191" t="s">
         <v>19</v>
       </c>
       <c r="L191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M191" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N191" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O191" t="s">
         <v>19</v>
@@ -11718,13 +11718,13 @@
         <v>19</v>
       </c>
       <c r="Q191" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R191" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S191" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -11756,19 +11756,19 @@
         <v>19</v>
       </c>
       <c r="J192" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K192" t="s">
         <v>19</v>
       </c>
       <c r="L192" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M192" t="s">
         <v>19</v>
       </c>
       <c r="N192" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O192" t="s">
         <v>19</v>
@@ -11780,7 +11780,7 @@
         <v>19</v>
       </c>
       <c r="R192" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S192" t="s">
         <v>25</v>
@@ -11794,7 +11794,7 @@
         <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
         <v>19</v>
@@ -11812,28 +11812,28 @@
         <v>24</v>
       </c>
       <c r="I193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P193" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q193" t="s">
         <v>19</v>
@@ -11842,7 +11842,7 @@
         <v>19</v>
       </c>
       <c r="S193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -11874,19 +11874,19 @@
         <v>19</v>
       </c>
       <c r="J194" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K194" t="s">
         <v>19</v>
       </c>
       <c r="L194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M194" t="s">
         <v>19</v>
       </c>
       <c r="N194" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O194" t="s">
         <v>19</v>
@@ -11930,22 +11930,22 @@
         <v>24</v>
       </c>
       <c r="I195" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J195" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K195" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M195" t="s">
         <v>19</v>
       </c>
       <c r="N195" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O195" t="s">
         <v>19</v>
@@ -11954,10 +11954,10 @@
         <v>19</v>
       </c>
       <c r="Q195" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R195" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S195" t="s">
         <v>21</v>
@@ -11968,10 +11968,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D196" t="s">
         <v>23</v>
@@ -11980,7 +11980,7 @@
         <v>24</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G196" t="s">
         <v>19</v>
@@ -11989,37 +11989,37 @@
         <v>24</v>
       </c>
       <c r="I196" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J196" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K196" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L196" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M196" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N196" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O196" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P196" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q196" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R196" t="s">
         <v>19</v>
       </c>
       <c r="S196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -12051,19 +12051,19 @@
         <v>19</v>
       </c>
       <c r="J197" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K197" t="s">
         <v>19</v>
       </c>
       <c r="L197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M197" t="s">
         <v>19</v>
       </c>
       <c r="N197" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O197" t="s">
         <v>19</v>
@@ -12075,7 +12075,7 @@
         <v>19</v>
       </c>
       <c r="R197" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S197" t="s">
         <v>25</v>
@@ -12107,31 +12107,31 @@
         <v>24</v>
       </c>
       <c r="I198" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J198" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K198" t="s">
         <v>19</v>
       </c>
       <c r="L198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M198" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N198" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O198" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P198" t="s">
         <v>19</v>
       </c>
       <c r="Q198" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R198" t="s">
         <v>19</v>
@@ -12166,31 +12166,31 @@
         <v>24</v>
       </c>
       <c r="I199" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J199" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K199" t="s">
         <v>19</v>
       </c>
       <c r="L199" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M199" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N199" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O199" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P199" t="s">
         <v>19</v>
       </c>
       <c r="Q199" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R199" t="s">
         <v>19</v>
@@ -12225,31 +12225,31 @@
         <v>24</v>
       </c>
       <c r="I200" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J200" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K200" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M200" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N200" t="s">
+        <v>24</v>
+      </c>
+      <c r="O200" t="s">
+        <v>24</v>
+      </c>
+      <c r="P200" t="s">
         <v>22</v>
       </c>
-      <c r="O200" t="s">
-        <v>19</v>
-      </c>
-      <c r="P200" t="s">
-        <v>19</v>
-      </c>
       <c r="Q200" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R200" t="s">
         <v>19</v>
@@ -12284,22 +12284,22 @@
         <v>24</v>
       </c>
       <c r="I201" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J201" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K201" t="s">
         <v>19</v>
       </c>
       <c r="L201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M201" t="s">
         <v>19</v>
       </c>
       <c r="N201" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O201" t="s">
         <v>19</v>
@@ -12308,7 +12308,7 @@
         <v>19</v>
       </c>
       <c r="Q201" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R201" t="s">
         <v>19</v>
@@ -12343,10 +12343,10 @@
         <v>24</v>
       </c>
       <c r="I202" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J202" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K202" t="s">
         <v>26</v>
@@ -12367,10 +12367,10 @@
         <v>26</v>
       </c>
       <c r="Q202" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R202" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S202" t="s">
         <v>26</v>
@@ -12402,31 +12402,31 @@
         <v>24</v>
       </c>
       <c r="I203" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J203" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K203" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L203" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M203" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N203" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O203" t="s">
+        <v>24</v>
+      </c>
+      <c r="P203" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q203" t="s">
         <v>22</v>
-      </c>
-      <c r="P203" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>19</v>
       </c>
       <c r="R203" t="s">
         <v>19</v>
@@ -12461,34 +12461,34 @@
         <v>24</v>
       </c>
       <c r="I204" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J204" t="s">
         <v>25</v>
       </c>
       <c r="K204" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L204" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M204" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N204" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O204" t="s">
+        <v>24</v>
+      </c>
+      <c r="P204" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q204" t="s">
         <v>22</v>
       </c>
-      <c r="P204" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>25</v>
-      </c>
       <c r="R204" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S204" t="s">
         <v>21</v>
@@ -12529,13 +12529,13 @@
         <v>19</v>
       </c>
       <c r="L205" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M205" t="s">
         <v>19</v>
       </c>
       <c r="N205" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O205" t="s">
         <v>19</v>
@@ -12579,7 +12579,7 @@
         <v>24</v>
       </c>
       <c r="I206" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J206" t="s">
         <v>25</v>
@@ -12588,10 +12588,10 @@
         <v>19</v>
       </c>
       <c r="L206" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M206" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N206" t="s">
         <v>24</v>
@@ -12600,13 +12600,13 @@
         <v>24</v>
       </c>
       <c r="P206" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R206" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S206" t="s">
         <v>25</v>
@@ -12638,22 +12638,22 @@
         <v>24</v>
       </c>
       <c r="I207" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J207" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K207" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M207" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N207" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O207" t="s">
         <v>24</v>
@@ -12662,10 +12662,10 @@
         <v>19</v>
       </c>
       <c r="Q207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R207" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S207" t="s">
         <v>21</v>
@@ -12697,7 +12697,7 @@
         <v>24</v>
       </c>
       <c r="I208" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J208" t="s">
         <v>25</v>
@@ -12706,25 +12706,25 @@
         <v>19</v>
       </c>
       <c r="L208" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M208" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N208" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O208" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P208" t="s">
         <v>19</v>
       </c>
       <c r="Q208" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R208" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S208" t="s">
         <v>21</v>
@@ -12759,22 +12759,22 @@
         <v>19</v>
       </c>
       <c r="J209" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K209" t="s">
         <v>19</v>
       </c>
       <c r="L209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M209" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N209" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O209" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P209" t="s">
         <v>19</v>
@@ -12815,22 +12815,22 @@
         <v>24</v>
       </c>
       <c r="I210" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J210" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K210" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L210" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M210" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N210" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O210" t="s">
         <v>24</v>
@@ -12839,7 +12839,7 @@
         <v>19</v>
       </c>
       <c r="Q210" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R210" t="s">
         <v>19</v>
@@ -12874,22 +12874,22 @@
         <v>24</v>
       </c>
       <c r="I211" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J211" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K211" t="s">
         <v>19</v>
       </c>
       <c r="L211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M211" t="s">
         <v>19</v>
       </c>
       <c r="N211" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O211" t="s">
         <v>19</v>
@@ -12898,10 +12898,10 @@
         <v>19</v>
       </c>
       <c r="Q211" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R211" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S211" t="s">
         <v>21</v>
@@ -12933,25 +12933,25 @@
         <v>24</v>
       </c>
       <c r="I212" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J212" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K212" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L212" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M212" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N212" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O212" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P212" t="s">
         <v>19</v>
@@ -12960,7 +12960,7 @@
         <v>19</v>
       </c>
       <c r="R212" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S212" t="s">
         <v>21</v>
@@ -12992,34 +12992,34 @@
         <v>24</v>
       </c>
       <c r="I213" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J213" t="s">
         <v>25</v>
       </c>
       <c r="K213" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L213" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M213" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N213" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O213" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P213" t="s">
         <v>19</v>
       </c>
       <c r="Q213" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R213" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S213" t="s">
         <v>25</v>
@@ -13051,22 +13051,22 @@
         <v>24</v>
       </c>
       <c r="I214" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J214" t="s">
         <v>25</v>
       </c>
       <c r="K214" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L214" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M214" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N214" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O214" t="s">
         <v>24</v>
@@ -13075,10 +13075,10 @@
         <v>19</v>
       </c>
       <c r="Q214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R214" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S214" t="s">
         <v>25</v>
@@ -13110,34 +13110,34 @@
         <v>24</v>
       </c>
       <c r="I215" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J215" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K215" t="s">
         <v>19</v>
       </c>
       <c r="L215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M215" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N215" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O215" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P215" t="s">
         <v>19</v>
       </c>
       <c r="Q215" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R215" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S215" t="s">
         <v>25</v>
@@ -13169,34 +13169,34 @@
         <v>24</v>
       </c>
       <c r="I216" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J216" t="s">
         <v>25</v>
       </c>
       <c r="K216" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L216" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M216" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N216" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O216" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P216" t="s">
         <v>19</v>
       </c>
       <c r="Q216" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R216" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S216" t="s">
         <v>21</v>
@@ -13231,19 +13231,19 @@
         <v>19</v>
       </c>
       <c r="J217" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K217" t="s">
         <v>19</v>
       </c>
       <c r="L217" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M217" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N217" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O217" t="s">
         <v>24</v>
@@ -13252,7 +13252,7 @@
         <v>19</v>
       </c>
       <c r="Q217" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R217" t="s">
         <v>19</v>
@@ -13287,22 +13287,22 @@
         <v>24</v>
       </c>
       <c r="I218" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J218" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K218" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L218" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M218" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N218" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O218" t="s">
         <v>24</v>
@@ -13311,7 +13311,7 @@
         <v>19</v>
       </c>
       <c r="Q218" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R218" t="s">
         <v>19</v>
@@ -13346,31 +13346,31 @@
         <v>24</v>
       </c>
       <c r="I219" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J219" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K219" t="s">
         <v>19</v>
       </c>
       <c r="L219" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M219" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N219" t="s">
         <v>19</v>
       </c>
       <c r="O219" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P219" t="s">
         <v>19</v>
       </c>
       <c r="Q219" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R219" t="s">
         <v>19</v>
@@ -13405,22 +13405,22 @@
         <v>23</v>
       </c>
       <c r="I220" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J220" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K220" t="s">
         <v>19</v>
       </c>
       <c r="L220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M220" t="s">
         <v>19</v>
       </c>
       <c r="N220" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O220" t="s">
         <v>19</v>
@@ -13429,10 +13429,10 @@
         <v>19</v>
       </c>
       <c r="Q220" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R220" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S220" t="s">
         <v>25</v>
@@ -13464,7 +13464,7 @@
         <v>24</v>
       </c>
       <c r="I221" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J221" t="s">
         <v>25</v>
@@ -13473,13 +13473,13 @@
         <v>19</v>
       </c>
       <c r="L221" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M221" t="s">
         <v>19</v>
       </c>
       <c r="N221" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O221" t="s">
         <v>19</v>
@@ -13488,10 +13488,10 @@
         <v>19</v>
       </c>
       <c r="Q221" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R221" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S221" t="s">
         <v>20</v>
@@ -13523,31 +13523,31 @@
         <v>24</v>
       </c>
       <c r="I222" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J222" t="s">
         <v>19</v>
       </c>
       <c r="K222" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L222" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M222" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N222" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O222" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P222" t="s">
         <v>19</v>
       </c>
       <c r="Q222" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R222" t="s">
         <v>19</v>
@@ -13585,19 +13585,19 @@
         <v>19</v>
       </c>
       <c r="J223" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K223" t="s">
         <v>19</v>
       </c>
       <c r="L223" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M223" t="s">
         <v>19</v>
       </c>
       <c r="N223" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O223" t="s">
         <v>19</v>
@@ -13609,7 +13609,7 @@
         <v>19</v>
       </c>
       <c r="R223" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S223" t="s">
         <v>25</v>
@@ -13641,22 +13641,22 @@
         <v>24</v>
       </c>
       <c r="I224" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J224" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K224" t="s">
         <v>19</v>
       </c>
       <c r="L224" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M224" t="s">
         <v>19</v>
       </c>
       <c r="N224" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O224" t="s">
         <v>19</v>
@@ -13665,10 +13665,10 @@
         <v>19</v>
       </c>
       <c r="Q224" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R224" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S224" t="s">
         <v>25</v>
@@ -13700,25 +13700,25 @@
         <v>24</v>
       </c>
       <c r="I225" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J225" t="s">
         <v>25</v>
       </c>
       <c r="K225" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L225" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M225" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N225" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O225" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P225" t="s">
         <v>19</v>
@@ -13727,7 +13727,7 @@
         <v>19</v>
       </c>
       <c r="R225" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S225" t="s">
         <v>21</v>
@@ -13759,34 +13759,34 @@
         <v>24</v>
       </c>
       <c r="I226" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J226" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K226" t="s">
         <v>19</v>
       </c>
       <c r="L226" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M226" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N226" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O226" t="s">
+        <v>24</v>
+      </c>
+      <c r="P226" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q226" t="s">
         <v>22</v>
       </c>
-      <c r="P226" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>25</v>
-      </c>
       <c r="R226" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S226" t="s">
         <v>21</v>
@@ -13821,19 +13821,19 @@
         <v>19</v>
       </c>
       <c r="J227" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K227" t="s">
         <v>19</v>
       </c>
       <c r="L227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M227" t="s">
         <v>19</v>
       </c>
       <c r="N227" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O227" t="s">
         <v>19</v>
@@ -13877,22 +13877,22 @@
         <v>24</v>
       </c>
       <c r="I228" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J228" t="s">
         <v>25</v>
       </c>
       <c r="K228" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L228" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M228" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N228" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O228" t="s">
         <v>19</v>
@@ -13901,10 +13901,10 @@
         <v>19</v>
       </c>
       <c r="Q228" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R228" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S228" t="s">
         <v>25</v>
@@ -13936,22 +13936,22 @@
         <v>24</v>
       </c>
       <c r="I229" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J229" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K229" t="s">
         <v>19</v>
       </c>
       <c r="L229" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M229" t="s">
         <v>19</v>
       </c>
       <c r="N229" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O229" t="s">
         <v>19</v>
@@ -13960,7 +13960,7 @@
         <v>19</v>
       </c>
       <c r="Q229" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R229" t="s">
         <v>19</v>
@@ -13995,7 +13995,7 @@
         <v>24</v>
       </c>
       <c r="I230" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J230" t="s">
         <v>25</v>
@@ -14004,13 +14004,13 @@
         <v>19</v>
       </c>
       <c r="L230" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M230" t="s">
         <v>19</v>
       </c>
       <c r="N230" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O230" t="s">
         <v>19</v>
@@ -14019,10 +14019,10 @@
         <v>19</v>
       </c>
       <c r="Q230" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R230" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S230" t="s">
         <v>25</v>
@@ -14054,22 +14054,22 @@
         <v>24</v>
       </c>
       <c r="I231" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J231" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K231" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L231" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M231" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N231" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O231" t="s">
         <v>19</v>
@@ -14078,10 +14078,10 @@
         <v>19</v>
       </c>
       <c r="Q231" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R231" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S231" t="s">
         <v>21</v>
@@ -14113,22 +14113,22 @@
         <v>24</v>
       </c>
       <c r="I232" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J232" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K232" t="s">
         <v>19</v>
       </c>
       <c r="L232" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M232" t="s">
         <v>19</v>
       </c>
       <c r="N232" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O232" t="s">
         <v>19</v>
@@ -14137,10 +14137,10 @@
         <v>19</v>
       </c>
       <c r="Q232" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R232" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S232" t="s">
         <v>25</v>
@@ -14178,19 +14178,19 @@
         <v>25</v>
       </c>
       <c r="K233" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L233" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M233" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N233" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O233" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P233" t="s">
         <v>19</v>
@@ -14199,7 +14199,7 @@
         <v>19</v>
       </c>
       <c r="R233" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S233" t="s">
         <v>21</v>
@@ -14231,22 +14231,22 @@
         <v>24</v>
       </c>
       <c r="I234" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J234" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K234" t="s">
         <v>19</v>
       </c>
       <c r="L234" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M234" t="s">
         <v>19</v>
       </c>
       <c r="N234" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O234" t="s">
         <v>19</v>
@@ -14255,7 +14255,7 @@
         <v>19</v>
       </c>
       <c r="Q234" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R234" t="s">
         <v>19</v>
@@ -14293,19 +14293,19 @@
         <v>19</v>
       </c>
       <c r="J235" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K235" t="s">
         <v>19</v>
       </c>
       <c r="L235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M235" t="s">
         <v>19</v>
       </c>
       <c r="N235" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O235" t="s">
         <v>19</v>
@@ -14317,7 +14317,7 @@
         <v>19</v>
       </c>
       <c r="R235" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S235" t="s">
         <v>21</v>
@@ -14352,19 +14352,19 @@
         <v>19</v>
       </c>
       <c r="J236" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K236" t="s">
         <v>19</v>
       </c>
       <c r="L236" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M236" t="s">
         <v>19</v>
       </c>
       <c r="N236" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O236" t="s">
         <v>19</v>
@@ -14408,10 +14408,10 @@
         <v>24</v>
       </c>
       <c r="I237" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J237" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K237" t="s">
         <v>26</v>
@@ -14432,10 +14432,10 @@
         <v>26</v>
       </c>
       <c r="Q237" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R237" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S237" t="s">
         <v>26</v>
@@ -14470,19 +14470,19 @@
         <v>19</v>
       </c>
       <c r="J238" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K238" t="s">
         <v>19</v>
       </c>
       <c r="L238" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M238" t="s">
         <v>19</v>
       </c>
       <c r="N238" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O238" t="s">
         <v>19</v>
@@ -14494,7 +14494,7 @@
         <v>19</v>
       </c>
       <c r="R238" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S238" t="s">
         <v>25</v>
@@ -14526,25 +14526,25 @@
         <v>24</v>
       </c>
       <c r="I239" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J239" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K239" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L239" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M239" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N239" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O239" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P239" t="s">
         <v>19</v>
@@ -14588,22 +14588,22 @@
         <v>19</v>
       </c>
       <c r="J240" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K240" t="s">
         <v>19</v>
       </c>
       <c r="L240" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M240" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N240" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O240" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P240" t="s">
         <v>19</v>
@@ -14647,22 +14647,22 @@
         <v>19</v>
       </c>
       <c r="J241" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K241" t="s">
         <v>19</v>
       </c>
       <c r="L241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M241" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N241" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O241" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P241" t="s">
         <v>19</v>
@@ -14706,19 +14706,19 @@
         <v>19</v>
       </c>
       <c r="J242" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K242" t="s">
         <v>19</v>
       </c>
       <c r="L242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M242" t="s">
         <v>19</v>
       </c>
       <c r="N242" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O242" t="s">
         <v>19</v>
@@ -14765,34 +14765,34 @@
         <v>19</v>
       </c>
       <c r="J243" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K243" t="s">
         <v>19</v>
       </c>
       <c r="L243" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M243" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N243" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O243" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P243" t="s">
         <v>19</v>
       </c>
       <c r="Q243" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R243" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S243" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:19">
@@ -14824,22 +14824,22 @@
         <v>19</v>
       </c>
       <c r="J244" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K244" t="s">
         <v>19</v>
       </c>
       <c r="L244" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M244" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N244" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O244" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P244" t="s">
         <v>19</v>
@@ -14883,19 +14883,19 @@
         <v>19</v>
       </c>
       <c r="J245" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K245" t="s">
         <v>19</v>
       </c>
       <c r="L245" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M245" t="s">
         <v>19</v>
       </c>
       <c r="N245" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O245" t="s">
         <v>19</v>
@@ -14939,34 +14939,34 @@
         <v>24</v>
       </c>
       <c r="I246" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J246" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K246" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M246" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N246" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O246" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P246" t="s">
         <v>19</v>
       </c>
       <c r="Q246" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R246" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S246" t="s">
         <v>25</v>
@@ -15001,28 +15001,28 @@
         <v>25</v>
       </c>
       <c r="J247" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K247" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L247" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M247" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N247" t="s">
+        <v>24</v>
+      </c>
+      <c r="O247" t="s">
+        <v>24</v>
+      </c>
+      <c r="P247" t="s">
         <v>22</v>
       </c>
-      <c r="O247" t="s">
-        <v>19</v>
-      </c>
-      <c r="P247" t="s">
-        <v>19</v>
-      </c>
       <c r="Q247" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R247" t="s">
         <v>19</v>
@@ -15057,22 +15057,22 @@
         <v>24</v>
       </c>
       <c r="I248" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J248" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K248" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L248" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M248" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N248" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O248" t="s">
         <v>24</v>
@@ -15081,7 +15081,7 @@
         <v>19</v>
       </c>
       <c r="Q248" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R248" t="s">
         <v>19</v>
@@ -15116,34 +15116,34 @@
         <v>24</v>
       </c>
       <c r="I249" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J249" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K249" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L249" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M249" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N249" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O249" t="s">
+        <v>24</v>
+      </c>
+      <c r="P249" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q249" t="s">
         <v>22</v>
       </c>
-      <c r="P249" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>19</v>
-      </c>
       <c r="R249" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S249" t="s">
         <v>21</v>
@@ -15178,13 +15178,13 @@
         <v>19</v>
       </c>
       <c r="J250" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K250" t="s">
         <v>19</v>
       </c>
       <c r="L250" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M250" t="s">
         <v>19</v>
@@ -15237,22 +15237,22 @@
         <v>19</v>
       </c>
       <c r="J251" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K251" t="s">
         <v>19</v>
       </c>
       <c r="L251" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M251" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N251" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O251" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P251" t="s">
         <v>19</v>
@@ -15293,22 +15293,22 @@
         <v>24</v>
       </c>
       <c r="I252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J252" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K252" t="s">
         <v>19</v>
       </c>
       <c r="L252" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M252" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N252" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O252" t="s">
         <v>24</v>
@@ -15317,7 +15317,7 @@
         <v>19</v>
       </c>
       <c r="Q252" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R252" t="s">
         <v>19</v>
@@ -15355,31 +15355,31 @@
         <v>19</v>
       </c>
       <c r="J253" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K253" t="s">
         <v>19</v>
       </c>
       <c r="L253" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M253" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N253" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O253" t="s">
+        <v>24</v>
+      </c>
+      <c r="P253" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q253" t="s">
         <v>22</v>
       </c>
-      <c r="P253" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>19</v>
-      </c>
       <c r="R253" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S253" t="s">
         <v>21</v>
